--- a/NformTester/NformTester/Keywordscripts/400.30.20_ApplicationImportEmailActionFromG1.xlsx
+++ b/NformTester/NformTester/Keywordscripts/400.30.20_ApplicationImportEmailActionFromG1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="15480" windowHeight="11640"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="849">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3809,6 +3809,10 @@
   </si>
   <si>
     <t>test email action _2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4792,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4951,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>796</v>
+        <v>848</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>191</v>
@@ -6583,7 +6587,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>796</v>
+        <v>848</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>191</v>
@@ -7256,7 +7260,7 @@
         <v>93</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>796</v>
+        <v>848</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>191</v>
